--- a/knime_day3.xlsx
+++ b/knime_day3.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D3EA6F3-7764-44F5-B9EC-33DB7F2D7403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033FABA1-8993-48DE-9B92-6012A1BD9380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3FEEF94-7637-4F52-996B-BBE9D483D530}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B3FEEF94-7637-4F52-996B-BBE9D483D530}"/>
   </bookViews>
   <sheets>
     <sheet name="mathf" sheetId="1" r:id="rId1"/>
-    <sheet name="String1" sheetId="2" r:id="rId2"/>
-    <sheet name="String2" sheetId="3" r:id="rId3"/>
+    <sheet name="conc1" sheetId="4" r:id="rId2"/>
+    <sheet name="conc2" sheetId="5" r:id="rId3"/>
+    <sheet name="String1" sheetId="2" r:id="rId4"/>
+    <sheet name="String2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -120,6 +122,15 @@
   </si>
   <si>
     <t>Sam Witwicky</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>2Name</t>
+  </si>
+  <si>
+    <t>Elec Subj</t>
   </si>
 </sst>
 </file>
@@ -487,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632DED2D-383C-4D0B-B9BB-8B2E7428DF9E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
@@ -653,6 +664,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4F1E79-0983-4384-A1EC-FD032FBD44B4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE1D7A9-6534-4C61-AEFA-E4B25A01554D}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079CCC5B-57D8-4E7B-A883-80C3A4A330AF}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -690,7 +827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387E4E30-643F-4CB3-9E8C-7ED4B76BCFF8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
